--- a/gatheringdatas/datasets/dic/stopword_list.xlsx
+++ b/gatheringdatas/datasets/dic/stopword_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="1044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="1059">
   <si>
     <t>stopword</t>
   </si>
@@ -342,7 +342,7 @@
     <t>기타</t>
   </si>
   <si>
-    <t>기프</t>
+    <t>기한</t>
   </si>
   <si>
     <t>까닭으로</t>
@@ -3148,13 +3148,58 @@
   </si>
   <si>
     <t>ㅎ</t>
+  </si>
+  <si>
+    <t>배송 보통이에요</t>
+  </si>
+  <si>
+    <t>배송 빨라요</t>
+  </si>
+  <si>
+    <t>보통이에요</t>
+  </si>
+  <si>
+    <t>기한이 넉넉해요</t>
+  </si>
+  <si>
+    <t>기한이 짧아요</t>
+  </si>
+  <si>
+    <t>배송</t>
+  </si>
+  <si>
+    <t>배송 느려요</t>
+  </si>
+  <si>
+    <t xml:space="preserve">기한 </t>
+  </si>
+  <si>
+    <t>성능</t>
+  </si>
+  <si>
+    <t>유통</t>
+  </si>
+  <si>
+    <t>넉넉하다</t>
+  </si>
+  <si>
+    <t>빠르다</t>
+  </si>
+  <si>
+    <t>포장</t>
+  </si>
+  <si>
+    <t>상세</t>
+  </si>
+  <si>
+    <t>\r\n</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -3191,11 +3236,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3236,7 +3276,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -3252,6 +3292,9 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -3260,12 +3303,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -3486,7 +3523,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.11"/>
+    <col customWidth="1" min="1" max="1" width="46.78"/>
     <col customWidth="1" min="2" max="26" width="8.33"/>
   </cols>
   <sheetData>
@@ -4056,7 +4093,7 @@
       </c>
     </row>
     <row r="109" ht="18.0" customHeight="1">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="5" t="s">
         <v>108</v>
       </c>
     </row>
@@ -8751,152 +8788,152 @@
       </c>
     </row>
     <row r="1048" ht="18.0" customHeight="1">
-      <c r="A1048" s="5" t="s">
+      <c r="A1048" s="6" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="1049" ht="18.0" customHeight="1">
-      <c r="A1049" s="5" t="s">
+      <c r="A1049" s="6" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="1050" ht="18.0" customHeight="1">
-      <c r="A1050" s="5" t="s">
+      <c r="A1050" s="6" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="1051" ht="18.0" customHeight="1">
-      <c r="A1051" s="5" t="s">
+      <c r="A1051" s="6" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="1052" ht="18.0" customHeight="1">
-      <c r="A1052" s="5" t="s">
+      <c r="A1052" s="6" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="1053" ht="18.0" customHeight="1">
-      <c r="A1053" s="5" t="s">
+      <c r="A1053" s="6" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="1054" ht="18.0" customHeight="1">
-      <c r="A1054" s="5" t="s">
+      <c r="A1054" s="6" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="1055" ht="18.0" customHeight="1">
-      <c r="A1055" s="5" t="s">
+      <c r="A1055" s="6" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="1056" ht="18.0" customHeight="1">
-      <c r="A1056" s="5" t="s">
+      <c r="A1056" s="6" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="1057" ht="18.0" customHeight="1">
-      <c r="A1057" s="5" t="s">
+      <c r="A1057" s="6" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="1058" ht="18.0" customHeight="1">
-      <c r="A1058" s="5" t="s">
+      <c r="A1058" s="6" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="1059" ht="18.0" customHeight="1">
-      <c r="A1059" s="5" t="s">
+      <c r="A1059" s="6" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="1060" ht="18.0" customHeight="1">
-      <c r="A1060" s="5" t="s">
+      <c r="A1060" s="6" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="1061" ht="18.0" customHeight="1">
-      <c r="A1061" s="5" t="s">
+      <c r="A1061" s="6" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="1062" ht="18.0" customHeight="1">
-      <c r="A1062" s="5" t="s">
+      <c r="A1062" s="6" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="1063" ht="18.0" customHeight="1">
-      <c r="A1063" s="5" t="s">
+      <c r="A1063" s="6" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="1064" ht="18.0" customHeight="1">
-      <c r="A1064" s="5" t="s">
+      <c r="A1064" s="6" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="1065" ht="18.0" customHeight="1">
-      <c r="A1065" s="5" t="s">
+      <c r="A1065" s="6" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="1066" ht="18.0" customHeight="1">
-      <c r="A1066" s="5" t="s">
+      <c r="A1066" s="6" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="1067" ht="18.0" customHeight="1">
-      <c r="A1067" s="5" t="s">
+      <c r="A1067" s="6" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="1068" ht="18.0" customHeight="1">
-      <c r="A1068" s="5" t="s">
+      <c r="A1068" s="6" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="1069" ht="18.0" customHeight="1">
-      <c r="A1069" s="5" t="s">
+      <c r="A1069" s="6" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="1070" ht="18.0" customHeight="1">
-      <c r="A1070" s="5" t="s">
+      <c r="A1070" s="6" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="1071" ht="18.0" customHeight="1">
-      <c r="A1071" s="5" t="s">
+      <c r="A1071" s="6" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="1072" ht="18.0" customHeight="1">
-      <c r="A1072" s="5" t="s">
+      <c r="A1072" s="6" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="1073" ht="18.0" customHeight="1">
-      <c r="A1073" s="5" t="s">
+      <c r="A1073" s="6" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="1074" ht="18.0" customHeight="1">
-      <c r="A1074" s="5" t="s">
+      <c r="A1074" s="6" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="1075" ht="18.0" customHeight="1">
-      <c r="A1075" s="5" t="s">
+      <c r="A1075" s="6" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="1076" ht="18.0" customHeight="1">
-      <c r="A1076" s="5" t="s">
+      <c r="A1076" s="6" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="1077" ht="18.0" customHeight="1">
-      <c r="A1077" s="6" t="s">
+      <c r="A1077" s="7" t="s">
         <v>981</v>
       </c>
     </row>
@@ -8916,518 +8953,552 @@
       </c>
     </row>
     <row r="1081" ht="18.0" customHeight="1">
-      <c r="A1081" s="7" t="s">
+      <c r="A1081" s="8" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="1082" ht="18.0" customHeight="1">
-      <c r="A1082" s="7" t="s">
+      <c r="A1082" s="8" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="1083" ht="18.0" customHeight="1">
-      <c r="A1083" s="7" t="s">
+      <c r="A1083" s="8" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="1084" ht="18.0" customHeight="1">
-      <c r="A1084" s="7" t="s">
+      <c r="A1084" s="8" t="s">
         <v>988</v>
       </c>
     </row>
     <row r="1085" ht="18.0" customHeight="1">
-      <c r="A1085" s="7" t="s">
+      <c r="A1085" s="8" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="1086" ht="18.0" customHeight="1">
-      <c r="A1086" s="5" t="s">
+      <c r="A1086" s="6" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="1087" ht="18.0" customHeight="1">
-      <c r="A1087" s="5" t="s">
+      <c r="A1087" s="6" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="1088" ht="18.0" customHeight="1">
-      <c r="A1088" s="5" t="s">
+      <c r="A1088" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="1089" ht="18.0" customHeight="1">
-      <c r="A1089" s="5" t="s">
+      <c r="A1089" s="6" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="1090" ht="18.0" customHeight="1">
-      <c r="A1090" s="5" t="s">
+      <c r="A1090" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="1091" ht="18.0" customHeight="1">
-      <c r="A1091" s="5" t="s">
+      <c r="A1091" s="6" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="1092" ht="18.0" customHeight="1">
-      <c r="A1092" s="5" t="s">
+      <c r="A1092" s="6" t="s">
         <v>994</v>
       </c>
     </row>
     <row r="1093" ht="18.0" customHeight="1">
-      <c r="A1093" s="5" t="s">
+      <c r="A1093" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="1094" ht="18.0" customHeight="1">
-      <c r="A1094" s="5" t="s">
+      <c r="A1094" s="6" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="1095" ht="18.0" customHeight="1">
-      <c r="A1095" s="5" t="s">
+      <c r="A1095" s="6" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="1096" ht="18.0" customHeight="1">
-      <c r="A1096" s="5" t="s">
+      <c r="A1096" s="6" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="1097" ht="18.0" customHeight="1">
-      <c r="A1097" s="5" t="s">
+      <c r="A1097" s="6" t="s">
         <v>998</v>
       </c>
     </row>
     <row r="1098" ht="18.0" customHeight="1">
-      <c r="A1098" s="5" t="s">
+      <c r="A1098" s="6" t="s">
         <v>999</v>
       </c>
     </row>
     <row r="1099" ht="18.0" customHeight="1">
-      <c r="A1099" s="5" t="s">
+      <c r="A1099" s="6" t="s">
         <v>1000</v>
       </c>
     </row>
     <row r="1100" ht="18.0" customHeight="1">
-      <c r="A1100" s="5" t="s">
+      <c r="A1100" s="6" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="1101" ht="18.0" customHeight="1">
-      <c r="A1101" s="5" t="s">
+      <c r="A1101" s="6" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="1102" ht="18.0" customHeight="1">
-      <c r="A1102" s="5" t="s">
+      <c r="A1102" s="6" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="1103" ht="18.0" customHeight="1">
-      <c r="A1103" s="5" t="s">
+      <c r="A1103" s="6" t="s">
         <v>1004</v>
       </c>
     </row>
     <row r="1104" ht="18.0" customHeight="1">
-      <c r="A1104" s="5" t="s">
+      <c r="A1104" s="6" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="1105" ht="18.0" customHeight="1">
-      <c r="A1105" s="5" t="s">
+      <c r="A1105" s="6" t="s">
         <v>1006</v>
       </c>
     </row>
     <row r="1106" ht="18.0" customHeight="1">
-      <c r="A1106" s="5" t="s">
+      <c r="A1106" s="6" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="1107" ht="18.0" customHeight="1">
-      <c r="A1107" s="5" t="s">
+      <c r="A1107" s="6" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="1108" ht="18.0" customHeight="1">
-      <c r="A1108" s="5" t="s">
+      <c r="A1108" s="6" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="1109" ht="18.0" customHeight="1">
-      <c r="A1109" s="5" t="s">
+      <c r="A1109" s="6" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="1110" ht="18.0" customHeight="1">
-      <c r="A1110" s="5" t="s">
+      <c r="A1110" s="6" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="1111" ht="18.0" customHeight="1">
-      <c r="A1111" s="5" t="s">
+      <c r="A1111" s="6" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="1112" ht="18.0" customHeight="1">
-      <c r="A1112" s="5" t="s">
+      <c r="A1112" s="6" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="1113" ht="18.0" customHeight="1">
-      <c r="A1113" s="5" t="s">
+      <c r="A1113" s="6" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="1114" ht="18.0" customHeight="1">
-      <c r="A1114" s="5" t="s">
+      <c r="A1114" s="6" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="1115" ht="18.0" customHeight="1">
-      <c r="A1115" s="6" t="s">
+      <c r="A1115" s="7" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="1116" ht="18.0" customHeight="1">
-      <c r="A1116" s="6" t="s">
+      <c r="A1116" s="7" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="1117" ht="18.0" customHeight="1">
-      <c r="A1117" s="5" t="s">
+      <c r="A1117" s="6" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="1118" ht="18.0" customHeight="1">
-      <c r="A1118" s="6" t="s">
+      <c r="A1118" s="7" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="1119" ht="18.0" customHeight="1">
-      <c r="A1119" s="6" t="s">
+      <c r="A1119" s="7" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="1120" ht="18.0" customHeight="1">
-      <c r="A1120" s="5" t="s">
+      <c r="A1120" s="6" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="1121" ht="18.0" customHeight="1">
-      <c r="A1121" s="5" t="s">
+      <c r="A1121" s="6" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="1122" ht="18.0" customHeight="1">
-      <c r="A1122" s="5" t="s">
+      <c r="A1122" s="6" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="1123" ht="18.0" customHeight="1">
-      <c r="A1123" s="5" t="s">
+      <c r="A1123" s="6" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="1124" ht="18.0" customHeight="1">
-      <c r="A1124" s="5" t="s">
+      <c r="A1124" s="6" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="1125" ht="18.0" customHeight="1">
-      <c r="A1125" s="5" t="s">
+      <c r="A1125" s="6" t="s">
         <v>1022</v>
       </c>
     </row>
     <row r="1126" ht="18.0" customHeight="1">
-      <c r="A1126" s="5" t="s">
+      <c r="A1126" s="6" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="1127" ht="18.0" customHeight="1">
-      <c r="A1127" s="5" t="s">
+      <c r="A1127" s="6" t="s">
         <v>1024</v>
       </c>
     </row>
     <row r="1128" ht="18.0" customHeight="1">
-      <c r="A1128" s="5" t="s">
+      <c r="A1128" s="6" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="1129" ht="18.0" customHeight="1">
-      <c r="A1129" s="5" t="s">
+      <c r="A1129" s="6" t="s">
         <v>994</v>
       </c>
     </row>
     <row r="1130" ht="18.0" customHeight="1">
-      <c r="A1130" s="5" t="s">
+      <c r="A1130" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="1131" ht="18.0" customHeight="1">
-      <c r="A1131" s="5" t="s">
+      <c r="A1131" s="6" t="s">
         <v>1026</v>
       </c>
     </row>
     <row r="1132" ht="18.0" customHeight="1">
-      <c r="A1132" s="5" t="s">
+      <c r="A1132" s="6" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="1133" ht="18.0" customHeight="1">
-      <c r="A1133" s="5" t="s">
+      <c r="A1133" s="6" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="1134" ht="18.0" customHeight="1">
-      <c r="A1134" s="5" t="s">
+      <c r="A1134" s="6" t="s">
         <v>1028</v>
       </c>
     </row>
     <row r="1135" ht="18.0" customHeight="1">
-      <c r="A1135" s="5" t="s">
+      <c r="A1135" s="6" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="1136" ht="18.0" customHeight="1">
-      <c r="A1136" s="5" t="s">
+      <c r="A1136" s="6" t="s">
         <v>1000</v>
       </c>
     </row>
     <row r="1137" ht="18.0" customHeight="1">
-      <c r="A1137" s="5" t="s">
+      <c r="A1137" s="6" t="s">
         <v>1030</v>
       </c>
     </row>
     <row r="1138" ht="18.0" customHeight="1">
-      <c r="A1138" s="5" t="s">
+      <c r="A1138" s="6" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="1139" ht="18.0" customHeight="1">
-      <c r="A1139" s="5" t="s">
+      <c r="A1139" s="6" t="s">
         <v>1032</v>
       </c>
     </row>
     <row r="1140" ht="18.0" customHeight="1">
-      <c r="A1140" s="5" t="s">
+      <c r="A1140" s="6" t="s">
         <v>1004</v>
       </c>
     </row>
     <row r="1141" ht="18.0" customHeight="1">
-      <c r="A1141" s="5" t="s">
+      <c r="A1141" s="6" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="1142" ht="18.0" customHeight="1">
-      <c r="A1142" s="5" t="s">
+      <c r="A1142" s="6" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="1143" ht="18.0" customHeight="1">
-      <c r="A1143" s="5" t="s">
+      <c r="A1143" s="6" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="1144" ht="18.0" customHeight="1">
-      <c r="A1144" s="5" t="s">
+      <c r="A1144" s="6" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="1145" ht="18.0" customHeight="1">
-      <c r="A1145" s="5" t="s">
+      <c r="A1145" s="6" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="1146" ht="18.0" customHeight="1">
-      <c r="A1146" s="5" t="s">
+      <c r="A1146" s="6" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="1147" ht="18.0" customHeight="1">
-      <c r="A1147" s="5" t="s">
+      <c r="A1147" s="6" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="1148" ht="18.0" customHeight="1">
-      <c r="A1148" s="5" t="s">
+      <c r="A1148" s="6" t="s">
         <v>1034</v>
       </c>
     </row>
     <row r="1149" ht="18.0" customHeight="1">
-      <c r="A1149" s="5" t="s">
+      <c r="A1149" s="6" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="1150" ht="18.0" customHeight="1">
-      <c r="A1150" s="5" t="s">
+      <c r="A1150" s="6" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="1151" ht="18.0" customHeight="1">
-      <c r="A1151" s="5" t="s">
+      <c r="A1151" s="6" t="s">
         <v>1036</v>
       </c>
     </row>
     <row r="1152" ht="18.0" customHeight="1">
-      <c r="A1152" s="5" t="s">
+      <c r="A1152" s="6" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="1153" ht="18.0" customHeight="1">
-      <c r="A1153" s="5" t="s">
+      <c r="A1153" s="6" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="1154" ht="18.0" customHeight="1">
-      <c r="A1154" s="5" t="s">
+      <c r="A1154" s="6" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="1155" ht="18.0" customHeight="1">
-      <c r="A1155" s="5" t="s">
+      <c r="A1155" s="6" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="1156" ht="18.0" customHeight="1">
-      <c r="A1156" s="5" t="s">
+      <c r="A1156" s="6" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="1157" ht="18.0" customHeight="1">
-      <c r="A1157" s="5" t="s">
+      <c r="A1157" s="6" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="1158" ht="18.0" customHeight="1">
-      <c r="A1158" s="5" t="s">
+      <c r="A1158" s="6" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="1159" ht="18.0" customHeight="1">
-      <c r="A1159" s="8" t="s">
+      <c r="A1159" s="6" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="1160" ht="18.0" customHeight="1">
-      <c r="A1160" s="9" t="s">
+      <c r="A1160" s="6" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="1161" ht="18.0" customHeight="1">
-      <c r="A1161" s="8" t="s">
+      <c r="A1161" s="6" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="1162" ht="18.0" customHeight="1">
-      <c r="A1162" s="8" t="s">
+      <c r="A1162" s="6" t="s">
         <v>1042</v>
       </c>
     </row>
     <row r="1163" ht="18.0" customHeight="1">
-      <c r="A1163" s="8" t="s">
+      <c r="A1163" s="6" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="1164" ht="18.0" customHeight="1">
-      <c r="A1164" s="8"/>
+    <row r="1164">
+      <c r="A1164" s="6" t="s">
+        <v>1044</v>
+      </c>
     </row>
     <row r="1165" ht="18.0" customHeight="1">
-      <c r="A1165" s="8"/>
+      <c r="A1165" s="6" t="s">
+        <v>1045</v>
+      </c>
     </row>
     <row r="1166" ht="18.0" customHeight="1">
-      <c r="A1166" s="10"/>
+      <c r="A1166" s="6" t="s">
+        <v>1046</v>
+      </c>
     </row>
     <row r="1167" ht="18.0" customHeight="1">
-      <c r="A1167" s="10"/>
+      <c r="A1167" s="6" t="s">
+        <v>1047</v>
+      </c>
     </row>
     <row r="1168" ht="18.0" customHeight="1">
-      <c r="A1168" s="10"/>
+      <c r="A1168" s="6" t="s">
+        <v>1048</v>
+      </c>
     </row>
     <row r="1169" ht="18.0" customHeight="1">
-      <c r="A1169" s="10"/>
+      <c r="A1169" s="6" t="s">
+        <v>1048</v>
+      </c>
     </row>
     <row r="1170" ht="18.0" customHeight="1">
-      <c r="A1170" s="10"/>
+      <c r="A1170" s="6" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="1171" ht="18.0" customHeight="1">
-      <c r="A1171" s="10"/>
+      <c r="A1171" s="6" t="s">
+        <v>1050</v>
+      </c>
     </row>
     <row r="1172" ht="18.0" customHeight="1">
-      <c r="A1172" s="10"/>
+      <c r="A1172" s="6" t="s">
+        <v>1051</v>
+      </c>
     </row>
     <row r="1173" ht="18.0" customHeight="1">
-      <c r="A1173" s="10"/>
+      <c r="A1173" s="6" t="s">
+        <v>1052</v>
+      </c>
     </row>
     <row r="1174" ht="18.0" customHeight="1">
-      <c r="A1174" s="10"/>
+      <c r="A1174" s="6" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="1175" ht="18.0" customHeight="1">
-      <c r="A1175" s="10"/>
+      <c r="A1175" s="6" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="1176" ht="18.0" customHeight="1">
-      <c r="A1176" s="10"/>
+      <c r="A1176" s="6" t="s">
+        <v>1055</v>
+      </c>
     </row>
     <row r="1177" ht="18.0" customHeight="1">
-      <c r="A1177" s="10"/>
+      <c r="A1177" s="6" t="s">
+        <v>1056</v>
+      </c>
     </row>
     <row r="1178" ht="18.0" customHeight="1">
-      <c r="A1178" s="10"/>
+      <c r="A1178" s="6" t="s">
+        <v>1057</v>
+      </c>
     </row>
     <row r="1179" ht="18.0" customHeight="1">
-      <c r="A1179" s="10"/>
+      <c r="A1179" s="6" t="s">
+        <v>1058</v>
+      </c>
     </row>
     <row r="1180" ht="18.0" customHeight="1">
-      <c r="A1180" s="10"/>
+      <c r="A1180" s="6" t="s">
+        <v>980</v>
+      </c>
     </row>
     <row r="1181" ht="18.0" customHeight="1">
-      <c r="A1181" s="10"/>
+      <c r="A1181" s="9"/>
     </row>
     <row r="1182" ht="18.0" customHeight="1">
-      <c r="A1182" s="10"/>
+      <c r="A1182" s="9"/>
     </row>
     <row r="1183" ht="18.0" customHeight="1">
-      <c r="A1183" s="10"/>
+      <c r="A1183" s="9"/>
     </row>
     <row r="1184" ht="18.0" customHeight="1">
-      <c r="A1184" s="10"/>
+      <c r="A1184" s="9"/>
     </row>
     <row r="1185" ht="18.0" customHeight="1">
-      <c r="A1185" s="10"/>
+      <c r="A1185" s="9"/>
     </row>
     <row r="1186" ht="18.0" customHeight="1">
-      <c r="A1186" s="10"/>
+      <c r="A1186" s="9"/>
     </row>
     <row r="1187" ht="18.0" customHeight="1">
-      <c r="A1187" s="10"/>
+      <c r="A1187" s="9"/>
     </row>
     <row r="1188" ht="18.0" customHeight="1">
-      <c r="A1188" s="10"/>
+      <c r="A1188" s="9"/>
     </row>
     <row r="1189" ht="18.0" customHeight="1">
-      <c r="A1189" s="10"/>
+      <c r="A1189" s="9"/>
     </row>
     <row r="1190" ht="18.0" customHeight="1">
-      <c r="A1190" s="10"/>
+      <c r="A1190" s="9"/>
     </row>
     <row r="1191" ht="18.0" customHeight="1">
-      <c r="A1191" s="10"/>
+      <c r="A1191" s="9"/>
     </row>
     <row r="1192" ht="18.0" customHeight="1">
-      <c r="A1192" s="10"/>
+      <c r="A1192" s="9"/>
     </row>
     <row r="1193" ht="18.0" customHeight="1">
-      <c r="A1193" s="10"/>
+      <c r="A1193" s="9"/>
     </row>
     <row r="1194" ht="18.0" customHeight="1">
-      <c r="A1194" s="10"/>
+      <c r="A1194" s="9"/>
     </row>
     <row r="1195" ht="18.0" customHeight="1">
-      <c r="A1195" s="10"/>
+      <c r="A1195" s="9"/>
     </row>
     <row r="1196" ht="18.0" customHeight="1">
-      <c r="A1196" s="10"/>
+      <c r="A1196" s="9"/>
     </row>
     <row r="1197" ht="18.0" customHeight="1">
       <c r="A1197" s="4"/>
